--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ebi3-Il27ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ebi3-Il27ra.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.928253333333333</v>
+        <v>9.402088999999998</v>
       </c>
       <c r="H2">
-        <v>17.78476</v>
+        <v>28.206267</v>
       </c>
       <c r="I2">
-        <v>0.4729671618337555</v>
+        <v>0.4769398566373552</v>
       </c>
       <c r="J2">
-        <v>0.4729671618337555</v>
+        <v>0.4769398566373552</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.51056</v>
+        <v>1.332201</v>
       </c>
       <c r="N2">
-        <v>4.53168</v>
+        <v>3.996603</v>
       </c>
       <c r="O2">
-        <v>0.4569399709189402</v>
+        <v>0.4977000102551081</v>
       </c>
       <c r="P2">
-        <v>0.4674407903484196</v>
+        <v>0.5003087024806611</v>
       </c>
       <c r="Q2">
-        <v>8.954982355199999</v>
+        <v>12.525472367889</v>
       </c>
       <c r="R2">
-        <v>80.59484119679999</v>
+        <v>112.729251311001</v>
       </c>
       <c r="S2">
-        <v>0.2161176011739299</v>
+        <v>0.2373729715394815</v>
       </c>
       <c r="T2">
-        <v>0.2210841439364195</v>
+        <v>0.2386171608355477</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.928253333333333</v>
+        <v>9.402088999999998</v>
       </c>
       <c r="H3">
-        <v>17.78476</v>
+        <v>28.206267</v>
       </c>
       <c r="I3">
-        <v>0.4729671618337555</v>
+        <v>0.4769398566373552</v>
       </c>
       <c r="J3">
-        <v>0.4729671618337555</v>
+        <v>0.4769398566373552</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.730397</v>
       </c>
       <c r="O3">
-        <v>0.2753123622535487</v>
+        <v>0.3400184143635273</v>
       </c>
       <c r="P3">
-        <v>0.281639244528509</v>
+        <v>0.341800619257677</v>
       </c>
       <c r="Q3">
-        <v>5.395495038857778</v>
+        <v>8.557145199777665</v>
       </c>
       <c r="R3">
-        <v>48.55945534972</v>
+        <v>77.01430679799898</v>
       </c>
       <c r="S3">
-        <v>0.1302137065928077</v>
+        <v>0.1621683338006015</v>
       </c>
       <c r="T3">
-        <v>0.133206114145652</v>
+        <v>0.1630183383473157</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.928253333333333</v>
+        <v>9.402088999999998</v>
       </c>
       <c r="H4">
-        <v>17.78476</v>
+        <v>28.206267</v>
       </c>
       <c r="I4">
-        <v>0.4729671618337555</v>
+        <v>0.4769398566373552</v>
       </c>
       <c r="J4">
-        <v>0.4729671618337555</v>
+        <v>0.4769398566373552</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.250344</v>
+        <v>0.07237833333333334</v>
       </c>
       <c r="N4">
-        <v>0.751032</v>
+        <v>0.217135</v>
       </c>
       <c r="O4">
-        <v>0.07572832597164705</v>
+        <v>0.02703998664034003</v>
       </c>
       <c r="P4">
-        <v>0.07746861906775286</v>
+        <v>0.02718171660110807</v>
       </c>
       <c r="Q4">
-        <v>1.48410265248</v>
+        <v>0.6805075316716666</v>
       </c>
       <c r="R4">
-        <v>13.35692387232</v>
+        <v>6.124567785045</v>
       </c>
       <c r="S4">
-        <v>0.03581701140523138</v>
+        <v>0.01289644735171977</v>
       </c>
       <c r="T4">
-        <v>0.03664011289165543</v>
+        <v>0.0129640440188897</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.928253333333333</v>
+        <v>9.402088999999998</v>
       </c>
       <c r="H5">
-        <v>17.78476</v>
+        <v>28.206267</v>
       </c>
       <c r="I5">
-        <v>0.4729671618337555</v>
+        <v>0.4769398566373552</v>
       </c>
       <c r="J5">
-        <v>0.4729671618337555</v>
+        <v>0.4769398566373552</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.2227905</v>
+        <v>0.0418705</v>
       </c>
       <c r="N5">
-        <v>0.445581</v>
+        <v>0.083741</v>
       </c>
       <c r="O5">
-        <v>0.06739347301068223</v>
+        <v>0.01564249559892726</v>
       </c>
       <c r="P5">
-        <v>0.04596148333603414</v>
+        <v>0.01048299044324218</v>
       </c>
       <c r="Q5">
-        <v>1.32075852426</v>
+        <v>0.3936701674744999</v>
       </c>
       <c r="R5">
-        <v>7.92455114556</v>
+        <v>2.362021004847</v>
       </c>
       <c r="S5">
-        <v>0.03187489965598218</v>
+        <v>0.007460529608402828</v>
       </c>
       <c r="T5">
-        <v>0.02173827232711352</v>
+        <v>0.004999755959130691</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.928253333333333</v>
+        <v>9.402088999999998</v>
       </c>
       <c r="H6">
-        <v>17.78476</v>
+        <v>28.206267</v>
       </c>
       <c r="I6">
-        <v>0.4729671618337555</v>
+        <v>0.4769398566373552</v>
       </c>
       <c r="J6">
-        <v>0.4729671618337555</v>
+        <v>0.4769398566373552</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4119903333333333</v>
+        <v>0.3201326666666667</v>
       </c>
       <c r="N6">
-        <v>1.235971</v>
+        <v>0.960398</v>
       </c>
       <c r="O6">
-        <v>0.1246258678451818</v>
+        <v>0.1195990931420972</v>
       </c>
       <c r="P6">
-        <v>0.1274898627192844</v>
+        <v>0.1202259712173118</v>
       </c>
       <c r="Q6">
-        <v>2.442383066884444</v>
+        <v>3.009915823807333</v>
       </c>
       <c r="R6">
-        <v>21.98144760196</v>
+        <v>27.089242414266</v>
       </c>
       <c r="S6">
-        <v>0.05894394300580431</v>
+        <v>0.05704157433714954</v>
       </c>
       <c r="T6">
-        <v>0.06029851853291504</v>
+        <v>0.05734055747647147</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.605922</v>
+        <v>10.311275</v>
       </c>
       <c r="H7">
-        <v>19.817766</v>
+        <v>30.933825</v>
       </c>
       <c r="I7">
-        <v>0.5270328381662445</v>
+        <v>0.5230601433626448</v>
       </c>
       <c r="J7">
-        <v>0.5270328381662445</v>
+        <v>0.5230601433626447</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.51056</v>
+        <v>1.332201</v>
       </c>
       <c r="N7">
-        <v>4.53168</v>
+        <v>3.996603</v>
       </c>
       <c r="O7">
-        <v>0.4569399709189402</v>
+        <v>0.4977000102551081</v>
       </c>
       <c r="P7">
-        <v>0.4674407903484196</v>
+        <v>0.5003087024806611</v>
       </c>
       <c r="Q7">
-        <v>9.97864153632</v>
+        <v>13.736690866275</v>
       </c>
       <c r="R7">
-        <v>89.80777382687999</v>
+        <v>123.630217796475</v>
       </c>
       <c r="S7">
-        <v>0.2408223697450103</v>
+        <v>0.2603270387156266</v>
       </c>
       <c r="T7">
-        <v>0.246356646412</v>
+        <v>0.2616915416451133</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.605922</v>
+        <v>10.311275</v>
       </c>
       <c r="H8">
-        <v>19.817766</v>
+        <v>30.933825</v>
       </c>
       <c r="I8">
-        <v>0.5270328381662445</v>
+        <v>0.5230601433626448</v>
       </c>
       <c r="J8">
-        <v>0.5270328381662445</v>
+        <v>0.5230601433626447</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>2.730397</v>
       </c>
       <c r="O8">
-        <v>0.2753123622535487</v>
+        <v>0.3400184143635273</v>
       </c>
       <c r="P8">
-        <v>0.281639244528509</v>
+        <v>0.341800619257677</v>
       </c>
       <c r="Q8">
-        <v>6.012263203678</v>
+        <v>9.384624775391666</v>
       </c>
       <c r="R8">
-        <v>54.11036883310199</v>
+        <v>84.461622978525</v>
       </c>
       <c r="S8">
-        <v>0.145098655660741</v>
+        <v>0.1778500805629258</v>
       </c>
       <c r="T8">
-        <v>0.148433130382857</v>
+        <v>0.1787822809103612</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.605922</v>
+        <v>10.311275</v>
       </c>
       <c r="H9">
-        <v>19.817766</v>
+        <v>30.933825</v>
       </c>
       <c r="I9">
-        <v>0.5270328381662445</v>
+        <v>0.5230601433626448</v>
       </c>
       <c r="J9">
-        <v>0.5270328381662445</v>
+        <v>0.5230601433626447</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.250344</v>
+        <v>0.07237833333333334</v>
       </c>
       <c r="N9">
-        <v>0.751032</v>
+        <v>0.217135</v>
       </c>
       <c r="O9">
-        <v>0.07572832597164705</v>
+        <v>0.02703998664034003</v>
       </c>
       <c r="P9">
-        <v>0.07746861906775286</v>
+        <v>0.02718171660110807</v>
       </c>
       <c r="Q9">
-        <v>1.653752937168</v>
+        <v>0.7463128990416668</v>
       </c>
       <c r="R9">
-        <v>14.883776434512</v>
+        <v>6.716816091375</v>
       </c>
       <c r="S9">
-        <v>0.03991131456641567</v>
+        <v>0.01414353928862026</v>
       </c>
       <c r="T9">
-        <v>0.04082850617609744</v>
+        <v>0.01421767258221837</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.605922</v>
+        <v>10.311275</v>
       </c>
       <c r="H10">
-        <v>19.817766</v>
+        <v>30.933825</v>
       </c>
       <c r="I10">
-        <v>0.5270328381662445</v>
+        <v>0.5230601433626448</v>
       </c>
       <c r="J10">
-        <v>0.5270328381662445</v>
+        <v>0.5230601433626447</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.2227905</v>
+        <v>0.0418705</v>
       </c>
       <c r="N10">
-        <v>0.445581</v>
+        <v>0.083741</v>
       </c>
       <c r="O10">
-        <v>0.06739347301068223</v>
+        <v>0.01564249559892726</v>
       </c>
       <c r="P10">
-        <v>0.04596148333603414</v>
+        <v>0.01048299044324218</v>
       </c>
       <c r="Q10">
-        <v>1.471736665341</v>
+        <v>0.4317382398875</v>
       </c>
       <c r="R10">
-        <v>8.830419992046</v>
+        <v>2.590429439325</v>
       </c>
       <c r="S10">
-        <v>0.03551857335470005</v>
+        <v>0.008181965990524434</v>
       </c>
       <c r="T10">
-        <v>0.02422321100892062</v>
+        <v>0.005483234484111491</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.605922</v>
+        <v>10.311275</v>
       </c>
       <c r="H11">
-        <v>19.817766</v>
+        <v>30.933825</v>
       </c>
       <c r="I11">
-        <v>0.5270328381662445</v>
+        <v>0.5230601433626448</v>
       </c>
       <c r="J11">
-        <v>0.5270328381662445</v>
+        <v>0.5230601433626447</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4119903333333333</v>
+        <v>0.3201326666666667</v>
       </c>
       <c r="N11">
-        <v>1.235971</v>
+        <v>0.960398</v>
       </c>
       <c r="O11">
-        <v>0.1246258678451818</v>
+        <v>0.1195990931420972</v>
       </c>
       <c r="P11">
-        <v>0.1274898627192844</v>
+        <v>0.1202259712173118</v>
       </c>
       <c r="Q11">
-        <v>2.721576006753999</v>
+        <v>3.300975962483334</v>
       </c>
       <c r="R11">
-        <v>24.494184060786</v>
+        <v>29.70878366235</v>
       </c>
       <c r="S11">
-        <v>0.06568192483937746</v>
+        <v>0.06255751880494768</v>
       </c>
       <c r="T11">
-        <v>0.06719134418636932</v>
+        <v>0.06288541374084029</v>
       </c>
     </row>
   </sheetData>
